--- a/Tablets Distribution - Botha-Bothe.xlsx
+++ b/Tablets Distribution - Botha-Bothe.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="All Tablets" sheetId="1" r:id="rId1"/>
@@ -13,16 +13,844 @@
     <sheet name="Motete" sheetId="4" r:id="rId4"/>
     <sheet name="Qalo" sheetId="5" r:id="rId5"/>
     <sheet name="Botha-Bothe" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Hololo!$A$1:$H$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Mechechane!$A$1:$F$1</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="270">
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Serial #</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Signature</t>
+  </si>
+  <si>
+    <t>X-TOUCH P1</t>
+  </si>
+  <si>
+    <t>11V1DP</t>
+  </si>
+  <si>
+    <t>BP100028</t>
+  </si>
+  <si>
+    <t>BP100026</t>
+  </si>
+  <si>
+    <t>11V1</t>
+  </si>
+  <si>
+    <t>HA0JPFB1</t>
+  </si>
+  <si>
+    <t>HA0JPPGF</t>
+  </si>
+  <si>
+    <t>HAOJH6Q2</t>
+  </si>
+  <si>
+    <t>HAOJHDWK</t>
+  </si>
+  <si>
+    <t>HAOJHEE6</t>
+  </si>
+  <si>
+    <t>HAOJHM03</t>
+  </si>
+  <si>
+    <t>HAOJHQ8M</t>
+  </si>
+  <si>
+    <t>HAOJHQUS</t>
+  </si>
+  <si>
+    <t>HAOJHUJL</t>
+  </si>
+  <si>
+    <t>HAOJHWWV</t>
+  </si>
+  <si>
+    <t>HAOJJHZH</t>
+  </si>
+  <si>
+    <t>HAOJMT63</t>
+  </si>
+  <si>
+    <t>HAOJMTTU</t>
+  </si>
+  <si>
+    <t>HAOJMUD4</t>
+  </si>
+  <si>
+    <t>HAOJMX3C</t>
+  </si>
+  <si>
+    <t>HAOJN1PX</t>
+  </si>
+  <si>
+    <t>HAOJN4K3</t>
+  </si>
+  <si>
+    <t>HAOJN4KL</t>
+  </si>
+  <si>
+    <t>HAOJN662</t>
+  </si>
+  <si>
+    <t>HAOJNJ4E</t>
+  </si>
+  <si>
+    <t>HAOJNS8E</t>
+  </si>
+  <si>
+    <t>HAOJNXFC</t>
+  </si>
+  <si>
+    <t>HAOJNYMS</t>
+  </si>
+  <si>
+    <t>HAOJP20W</t>
+  </si>
+  <si>
+    <t>HAOJP21X</t>
+  </si>
+  <si>
+    <t>HAOJP35C</t>
+  </si>
+  <si>
+    <t>HAOJP3LN</t>
+  </si>
+  <si>
+    <t>HAOJP47T</t>
+  </si>
+  <si>
+    <t>HAOJP6D6</t>
+  </si>
+  <si>
+    <t>HAOJP8KH</t>
+  </si>
+  <si>
+    <t>HAOJP9LW</t>
+  </si>
+  <si>
+    <t>HAOJPA0V</t>
+  </si>
+  <si>
+    <t>HAOJPA1M</t>
+  </si>
+  <si>
+    <t>HAOJPBFP</t>
+  </si>
+  <si>
+    <t>HAOJPBVB</t>
+  </si>
+  <si>
+    <t>HAOJPBZ8</t>
+  </si>
+  <si>
+    <t>HAOJPDNX</t>
+  </si>
+  <si>
+    <t>HAOJPDPB</t>
+  </si>
+  <si>
+    <t>HAOJPFSL</t>
+  </si>
+  <si>
+    <t>HAOJPH6B</t>
+  </si>
+  <si>
+    <t>HAOJPJUN</t>
+  </si>
+  <si>
+    <t>HAOJPJVQ</t>
+  </si>
+  <si>
+    <t>HAOJPLL0</t>
+  </si>
+  <si>
+    <t>HAOJPRFP</t>
+  </si>
+  <si>
+    <t>HAOJPSSJ</t>
+  </si>
+  <si>
+    <t>HAOJPX24</t>
+  </si>
+  <si>
+    <t>HAOJPX5T</t>
+  </si>
+  <si>
+    <t>HAOJPX82</t>
+  </si>
+  <si>
+    <t>HAOJPYC9</t>
+  </si>
+  <si>
+    <t>HAOJPYM8</t>
+  </si>
+  <si>
+    <t>HAOJPZVU</t>
+  </si>
+  <si>
+    <t>HAOJQ025</t>
+  </si>
+  <si>
+    <t>HAOJQ133</t>
+  </si>
+  <si>
+    <t>HAOJQ135</t>
+  </si>
+  <si>
+    <t>HAOJQEXZ</t>
+  </si>
+  <si>
+    <t>HAOJQJ83</t>
+  </si>
+  <si>
+    <t>HAOJQJB4</t>
+  </si>
+  <si>
+    <t>HAOJUGYA</t>
+  </si>
+  <si>
+    <t>LENOVO 2 TAB A7</t>
+  </si>
+  <si>
+    <t>M7043GVCJDG2707201502275</t>
+  </si>
+  <si>
+    <t>M7043GVCJDG2707201505069</t>
+  </si>
+  <si>
+    <t>M7043GVCJDG2707201505122</t>
+  </si>
+  <si>
+    <t>M7043GVCJDG2707201505125</t>
+  </si>
+  <si>
+    <t>M7043GVCJDG2707201505129</t>
+  </si>
+  <si>
+    <t>M7043GVCJDG2707201505211</t>
+  </si>
+  <si>
+    <t>M7043GVCJDG2707201505306</t>
+  </si>
+  <si>
+    <t>M7043GVCJDG2707201505324</t>
+  </si>
+  <si>
+    <t>M7043GVCJDG2707201505337</t>
+  </si>
+  <si>
+    <t>M7043GVCJDG2707201505444</t>
+  </si>
+  <si>
+    <t>M7043GVCJDG2707201505448</t>
+  </si>
+  <si>
+    <t>M7043GVCJDG2707201505518</t>
+  </si>
+  <si>
+    <t>M7043GVCJDG2707201505526</t>
+  </si>
+  <si>
+    <t>M7043GVCJDG2707201505594</t>
+  </si>
+  <si>
+    <t>M7043GVCJDG2707201505692</t>
+  </si>
+  <si>
+    <t>M7043GVCJDG2707201506139</t>
+  </si>
+  <si>
+    <t>M7043GVCJDG2707201506238</t>
+  </si>
+  <si>
+    <t>M7043GVCJDG2707201506361</t>
+  </si>
+  <si>
+    <t>M7043GVCJDG2707201506365</t>
+  </si>
+  <si>
+    <t>M7043GVCJDG2707201506390</t>
+  </si>
+  <si>
+    <t>M7043GVCJDG2707201506393</t>
+  </si>
+  <si>
+    <t>M7043GVCJDG2707201506523</t>
+  </si>
+  <si>
+    <t>M7043GVCJDG2707201506527</t>
+  </si>
+  <si>
+    <t>M7043GVCJDG2707201506590</t>
+  </si>
+  <si>
+    <t>M7043GVCJDG2707201506632</t>
+  </si>
+  <si>
+    <t>M7043GVCJDG2707201506639</t>
+  </si>
+  <si>
+    <t>M7043GVCJDG2707201506750</t>
+  </si>
+  <si>
+    <t>M7043GVCJDG2707201506858</t>
+  </si>
+  <si>
+    <t>M7043GVCJDG2707201506995</t>
+  </si>
+  <si>
+    <t>M7043GVCJDG2707201507027</t>
+  </si>
+  <si>
+    <t>M7043GVCJDG2707201507172</t>
+  </si>
+  <si>
+    <t>M7043GVCJDG2707201507248</t>
+  </si>
+  <si>
+    <t>M7043GVCJDG2707201507320</t>
+  </si>
+  <si>
+    <t>M7043GVCJDG2707201507350</t>
+  </si>
+  <si>
+    <t>M7043GVCJDG2707201507359</t>
+  </si>
+  <si>
+    <t>M7043GVCJDG2707201507449</t>
+  </si>
+  <si>
+    <t>M7043GVCJDG2707201507669</t>
+  </si>
+  <si>
+    <t>M7043GVCJDG2707201507670</t>
+  </si>
+  <si>
+    <t>M7043GVCJDG2707201507708</t>
+  </si>
+  <si>
+    <t>M7043GVCJDG2707201507800</t>
+  </si>
+  <si>
+    <t>M7043GVCJDG2707201507886</t>
+  </si>
+  <si>
+    <t>M7043GVCJDG2707201507890</t>
+  </si>
+  <si>
+    <t>M7043GVCJDG2707201508150</t>
+  </si>
+  <si>
+    <t>M7043GVCJDG2707201508261</t>
+  </si>
+  <si>
+    <t>M7043GVCJDG2707201508683</t>
+  </si>
+  <si>
+    <t>M7043GVCJDG2707201508689</t>
+  </si>
+  <si>
+    <t>M7043GVCJDG2707201508734</t>
+  </si>
+  <si>
+    <t>M7043GVCJDG2707201508740</t>
+  </si>
+  <si>
+    <t>M7043GVCJDG2707201508966</t>
+  </si>
+  <si>
+    <t>M7043GVCJDG2707201509163</t>
+  </si>
+  <si>
+    <t>M7043GVCJDG2707201509199</t>
+  </si>
+  <si>
+    <t>M7043GVCJDG2707201509351</t>
+  </si>
+  <si>
+    <t>M7043GVCJDG2707201509353</t>
+  </si>
+  <si>
+    <t>M7043GVCJDG2707201509789</t>
+  </si>
+  <si>
+    <t>M7043GVCJDG2707201509925</t>
+  </si>
+  <si>
+    <t>M7043GVCJDG2707201509928</t>
+  </si>
+  <si>
+    <t>M7043GVCJDG2707201510080</t>
+  </si>
+  <si>
+    <t>M7043GVCJDG2707201510081</t>
+  </si>
+  <si>
+    <t>M7043GVCJDG2707201510354</t>
+  </si>
+  <si>
+    <t>M7043GVCJDG2707201510639</t>
+  </si>
+  <si>
+    <t>M7043GVCJDG2707201511154</t>
+  </si>
+  <si>
+    <t>M7043GVCJDG2707201511353</t>
+  </si>
+  <si>
+    <t>M7043GVCJDG2707201511354</t>
+  </si>
+  <si>
+    <t>M7043GVCJDG2707201511552</t>
+  </si>
+  <si>
+    <t>M7043GVCJDG2707201511554</t>
+  </si>
+  <si>
+    <t>M7043GVCJDG2707201511588</t>
+  </si>
+  <si>
+    <t>M7043GVCJDG2707201511837</t>
+  </si>
+  <si>
+    <t>M7043GVCJDG2707201511840</t>
+  </si>
+  <si>
+    <t>M7043GVCJDG2707201511876</t>
+  </si>
+  <si>
+    <t>M7043GVCJDG2707201511890</t>
+  </si>
+  <si>
+    <t>M7043GVCJDG2707201512161</t>
+  </si>
+  <si>
+    <t>M7043GVCJDG2707201512165</t>
+  </si>
+  <si>
+    <t>M7043GVCJDG2707201512181</t>
+  </si>
+  <si>
+    <t>M7043GVCJDG2707201512187</t>
+  </si>
+  <si>
+    <t>M7043GVCJDG2707201512472</t>
+  </si>
+  <si>
+    <t>M7043GVCJDG2707201512479</t>
+  </si>
+  <si>
+    <t>M7043GVCJDG2707201512504</t>
+  </si>
+  <si>
+    <t>M7043GVCJDG2707201512821</t>
+  </si>
+  <si>
+    <t>M7043GVCJDG2707201512826</t>
+  </si>
+  <si>
+    <t>M7043GVCJDG2707201513029</t>
+  </si>
+  <si>
+    <t>M7043GVCJDG2707201513068</t>
+  </si>
+  <si>
+    <t>M7043GVCJDG2707201513141</t>
+  </si>
+  <si>
+    <t>M7043GVCJDG2707201513144</t>
+  </si>
+  <si>
+    <t>M7043GVCJDG2707201513149</t>
+  </si>
+  <si>
+    <t>M7043GVCJDG2707201513299</t>
+  </si>
+  <si>
+    <t>M7043GVCJDG2707201513642</t>
+  </si>
+  <si>
+    <t>M7043GVCJDG2707201513753</t>
+  </si>
+  <si>
+    <t>M7043GVCJDG2707201514043</t>
+  </si>
+  <si>
+    <t>M7043GVCJDG2707201514048</t>
+  </si>
+  <si>
+    <t>M7043GVCJDG2707201514052</t>
+  </si>
+  <si>
+    <t>M7043GVCJDG2707201514054</t>
+  </si>
+  <si>
+    <t>M7043GVCJDG2707201514055</t>
+  </si>
+  <si>
+    <t>M7043GVCJDG2707201514059</t>
+  </si>
+  <si>
+    <t>M7043GVCJDG2707201514387</t>
+  </si>
+  <si>
+    <t>M7043GVCJDG2707201514389</t>
+  </si>
+  <si>
+    <t>M7043GVCJDG2707201514410</t>
+  </si>
+  <si>
+    <t>M7043GVCJDG2707201514719</t>
+  </si>
+  <si>
+    <t>M7043GVCJDG2707201514847</t>
+  </si>
+  <si>
+    <t>M7043GVCJDG2707201514909</t>
+  </si>
+  <si>
+    <t>CLICK 7" M7043G</t>
+  </si>
+  <si>
+    <t>11V1AP112433</t>
+  </si>
+  <si>
+    <t>11V1AP112436</t>
+  </si>
+  <si>
+    <t>11V1AP112438</t>
+  </si>
+  <si>
+    <t>11V1BP100029</t>
+  </si>
+  <si>
+    <t>11V1BP100338</t>
+  </si>
+  <si>
+    <t>11V1BP100743</t>
+  </si>
+  <si>
+    <t>11V1BP100937</t>
+  </si>
+  <si>
+    <t>11V1DP100022</t>
+  </si>
+  <si>
+    <t>11V1DP100031</t>
+  </si>
+  <si>
+    <t>11V1DP101884</t>
+  </si>
+  <si>
+    <t>11V1DP101885</t>
+  </si>
+  <si>
+    <t>11V1DP101892</t>
+  </si>
+  <si>
+    <t>11V1DP101895</t>
+  </si>
+  <si>
+    <t>11V1DP101896</t>
+  </si>
+  <si>
+    <t>11V1DP101986</t>
+  </si>
+  <si>
+    <t>11V1DP101997</t>
+  </si>
+  <si>
+    <t>11V1DP101998</t>
+  </si>
+  <si>
+    <t>11V1DP102318</t>
+  </si>
+  <si>
+    <t>11V1DP102463</t>
+  </si>
+  <si>
+    <t>11V1DP102464</t>
+  </si>
+  <si>
+    <t>11V1DP102467</t>
+  </si>
+  <si>
+    <t>11V1DP102468</t>
+  </si>
+  <si>
+    <t>11V1DP102471</t>
+  </si>
+  <si>
+    <t>11V1DP102475</t>
+  </si>
+  <si>
+    <t>11V1DP102478</t>
+  </si>
+  <si>
+    <t>11V1DP102479</t>
+  </si>
+  <si>
+    <t>11V1DP102515</t>
+  </si>
+  <si>
+    <t>11V1DP102517</t>
+  </si>
+  <si>
+    <t>11V1DP103451</t>
+  </si>
+  <si>
+    <t>11V1DP103454</t>
+  </si>
+  <si>
+    <t>11V1DP103455</t>
+  </si>
+  <si>
+    <t>11V1DP103456</t>
+  </si>
+  <si>
+    <t>11V1DP103457</t>
+  </si>
+  <si>
+    <t>11V1DP103458</t>
+  </si>
+  <si>
+    <t>11V1DP103459</t>
+  </si>
+  <si>
+    <t>11V1DP103460</t>
+  </si>
+  <si>
+    <t>11V1DP103461</t>
+  </si>
+  <si>
+    <t>11V1DP103462</t>
+  </si>
+  <si>
+    <t>11V1DP103463</t>
+  </si>
+  <si>
+    <t>11V1DP103691</t>
+  </si>
+  <si>
+    <t>11V1DP103710</t>
+  </si>
+  <si>
+    <t>11V1DP104021</t>
+  </si>
+  <si>
+    <t>11V1DP104022</t>
+  </si>
+  <si>
+    <t>11V1DP104024</t>
+  </si>
+  <si>
+    <t>11V1DP104033</t>
+  </si>
+  <si>
+    <t>11V1DP104141</t>
+  </si>
+  <si>
+    <t>11V1DP104147</t>
+  </si>
+  <si>
+    <t>11V1DP104151</t>
+  </si>
+  <si>
+    <t>11V1DP104159</t>
+  </si>
+  <si>
+    <t>11V1DP104204</t>
+  </si>
+  <si>
+    <t>11V1DP104208</t>
+  </si>
+  <si>
+    <t>11V1DP104213</t>
+  </si>
+  <si>
+    <t>11V1DP104216</t>
+  </si>
+  <si>
+    <t>11V1DP104218</t>
+  </si>
+  <si>
+    <t>11V1DP104219</t>
+  </si>
+  <si>
+    <t>11V1DP104220</t>
+  </si>
+  <si>
+    <t>Lenovo Tab A8</t>
+  </si>
+  <si>
+    <t>HJF0AHY5</t>
+  </si>
+  <si>
+    <t>HJF0THJL</t>
+  </si>
+  <si>
+    <t>HJF0THKC</t>
+  </si>
+  <si>
+    <t>HJF0THMF</t>
+  </si>
+  <si>
+    <t>HJFOTJW</t>
+  </si>
+  <si>
+    <t>HJH0AHCN</t>
+  </si>
+  <si>
+    <t>HJH0AHCU</t>
+  </si>
+  <si>
+    <t>HJH0AHHT</t>
+  </si>
+  <si>
+    <t>HJH0AHJA</t>
+  </si>
+  <si>
+    <t>HJH0AHL5</t>
+  </si>
+  <si>
+    <t>HJH0AHQW</t>
+  </si>
+  <si>
+    <t>HJH0AHU1</t>
+  </si>
+  <si>
+    <t>HJH0D04Q</t>
+  </si>
+  <si>
+    <t>HJH0D07Z</t>
+  </si>
+  <si>
+    <t>HJH0D0A1</t>
+  </si>
+  <si>
+    <t>HJH0D0B8</t>
+  </si>
+  <si>
+    <t>HJH0D0D5</t>
+  </si>
+  <si>
+    <t>HJH0D0DY</t>
+  </si>
+  <si>
+    <t>HJH0D0SB</t>
+  </si>
+  <si>
+    <t>HJH0DAE4</t>
+  </si>
+  <si>
+    <t>HJH0DAE5</t>
+  </si>
+  <si>
+    <t>HJH0DAEZ</t>
+  </si>
+  <si>
+    <t>HJH0DAHL</t>
+  </si>
+  <si>
+    <t>HJH0DAKB</t>
+  </si>
+  <si>
+    <t>HJH0DAKG</t>
+  </si>
+  <si>
+    <t>HJH0DAMC</t>
+  </si>
+  <si>
+    <t>HJH0DAYL</t>
+  </si>
+  <si>
+    <t>HJH0DB0</t>
+  </si>
+  <si>
+    <t>HJH0DB03</t>
+  </si>
+  <si>
+    <t>HJH0DB11</t>
+  </si>
+  <si>
+    <t>HJH0DB1D</t>
+  </si>
+  <si>
+    <t>HJH0DB1L</t>
+  </si>
+  <si>
+    <t>HJH0DB1W</t>
+  </si>
+  <si>
+    <t>HJH0DB1Y</t>
+  </si>
+  <si>
+    <t>HJH0DB26</t>
+  </si>
+  <si>
+    <t>HJH0DB2N</t>
+  </si>
+  <si>
+    <t>HJH0DB2R</t>
+  </si>
+  <si>
+    <t>HJH0DB2X</t>
+  </si>
+  <si>
+    <t>HJH0DB39</t>
+  </si>
+  <si>
+    <t>HJH0DB44</t>
+  </si>
+  <si>
+    <t>HJH0DB5G</t>
+  </si>
+  <si>
+    <t>HJH0THGN</t>
+  </si>
+  <si>
+    <t>HJH0THPA</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -37,10 +865,36 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -49,8 +903,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -357,60 +1223,5189 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="33.85546875" customWidth="1"/>
+    <col min="5" max="5" width="43.7109375" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A25" s="3">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="3">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="3">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="3">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="3">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="3">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="3">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="3">
+        <v>32</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="3">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="3">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="3">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="3">
+        <v>36</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="3">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="3">
+        <v>38</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="3">
+        <v>39</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="3">
+        <v>40</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="3">
+        <v>41</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="3">
+        <v>42</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="3">
+        <v>43</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="3">
+        <v>44</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="3">
+        <v>45</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="3">
+        <v>46</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F1">
+    <sortState ref="A2:F57">
+      <sortCondition ref="C1"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.29166666666666669" right="0.22916666666666666" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;A
+&amp;CTABLETS ALLOCATION FORM</oddHeader>
+    <oddFooter>&amp;RPage &amp;P of &amp;N</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView view="pageLayout" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C53"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="33.85546875" customWidth="1"/>
+    <col min="5" max="5" width="43.7109375" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="2" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="18.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="str">
+        <f>CONCATENATE(G2,H2)</f>
+        <v>11V1BP100026</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="str">
+        <f>CONCATENATE(G3,H3)</f>
+        <v>11V1BP100028</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3" t="str">
+        <f>CONCATENATE(G4,H4)</f>
+        <v>11V1DP100336</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="3">
+        <v>100336</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3" t="str">
+        <f>CONCATENATE(G5,H5)</f>
+        <v>11V1DP101881</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="3">
+        <v>101881</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3" t="str">
+        <f>CONCATENATE(G6,H6)</f>
+        <v>11V1DP101924</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="3">
+        <v>101924</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3" t="str">
+        <f>CONCATENATE(G7,H7)</f>
+        <v>11V1DP101931</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="3">
+        <v>101931</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3" t="str">
+        <f>CONCATENATE(G8,H8)</f>
+        <v>11V1DP101983</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="6">
+        <v>101983</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3" t="str">
+        <f>CONCATENATE(G9,H9)</f>
+        <v>11V1DP101987</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="3">
+        <v>101987</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="3" t="str">
+        <f>CONCATENATE(G10,H10)</f>
+        <v>11V1DP102303</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="3">
+        <v>102303</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="3" t="str">
+        <f>CONCATENATE(G11,H11)</f>
+        <v>11V1DP102304</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="3">
+        <v>102304</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="3" t="str">
+        <f>CONCATENATE(G12,H12)</f>
+        <v>11V1DP102308</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="3">
+        <v>102308</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="3" t="str">
+        <f>CONCATENATE(G13,H13)</f>
+        <v>11V1DP102315</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="3">
+        <v>102315</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="3" t="str">
+        <f>CONCATENATE(G14,H14)</f>
+        <v>11V1DP102470</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="3">
+        <v>102470</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="3" t="str">
+        <f>CONCATENATE(G15,H15)</f>
+        <v>11V1DP102508</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" s="3">
+        <v>102508</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="3" t="str">
+        <f>CONCATENATE(G16,H16)</f>
+        <v>11V1DP102512</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="6">
+        <v>102512</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="3" t="str">
+        <f>CONCATENATE(G17,H17)</f>
+        <v>11V1DP102514</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" s="3">
+        <v>102514</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="3" t="str">
+        <f>CONCATENATE(G18,H18)</f>
+        <v>11V1DP102523</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" s="3">
+        <v>102523</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="3" t="str">
+        <f>CONCATENATE(G19,H19)</f>
+        <v>11V1DP102768</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19" s="3">
+        <v>102768</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="3" t="str">
+        <f>CONCATENATE(G20,H20)</f>
+        <v>11V1DP102863</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" s="3">
+        <v>102863</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="3" t="str">
+        <f>CONCATENATE(G21,H21)</f>
+        <v>11V1DP102865</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21" s="3">
+        <v>102865</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="3" t="str">
+        <f>CONCATENATE(G22,H22)</f>
+        <v>11V1DP102866</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" t="s">
+        <v>7</v>
+      </c>
+      <c r="H22" s="3">
+        <v>102866</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="3" t="str">
+        <f>CONCATENATE(G23,H23)</f>
+        <v>11V1DP102867</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23" s="3">
+        <v>102867</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="3" t="str">
+        <f>CONCATENATE(G24,H24)</f>
+        <v>11V1DP102869</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" t="s">
+        <v>7</v>
+      </c>
+      <c r="H24" s="3">
+        <v>102869</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="18.75">
+      <c r="A25" s="3">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="3" t="str">
+        <f>CONCATENATE(G25,H25)</f>
+        <v>11V1DP102870</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" t="s">
+        <v>7</v>
+      </c>
+      <c r="H25" s="3">
+        <v>102870</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="3" t="str">
+        <f>CONCATENATE(G26,H26)</f>
+        <v>11V1DP102875</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" t="s">
+        <v>7</v>
+      </c>
+      <c r="H26" s="3">
+        <v>102875</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="3">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="3" t="str">
+        <f>CONCATENATE(G27,H27)</f>
+        <v>11V1DP102875</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" t="s">
+        <v>7</v>
+      </c>
+      <c r="H27" s="3">
+        <v>102875</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="3">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="3" t="str">
+        <f>CONCATENATE(G28,H28)</f>
+        <v>11V1DP102876</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" t="s">
+        <v>7</v>
+      </c>
+      <c r="H28" s="3">
+        <v>102876</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="3">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="3" t="str">
+        <f>CONCATENATE(G29,H29)</f>
+        <v>11V1DP102877</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" t="s">
+        <v>7</v>
+      </c>
+      <c r="H29" s="3">
+        <v>102877</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="3">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="3" t="str">
+        <f>CONCATENATE(G30,H30)</f>
+        <v>11V1DP102878</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" t="s">
+        <v>7</v>
+      </c>
+      <c r="H30" s="3">
+        <v>102878</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="3">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="3" t="str">
+        <f>CONCATENATE(G31,H31)</f>
+        <v>11V1DP103274</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" t="s">
+        <v>7</v>
+      </c>
+      <c r="H31" s="3">
+        <v>103274</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="3">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="3" t="str">
+        <f>CONCATENATE(G32,H32)</f>
+        <v>11V1DP103708</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" t="s">
+        <v>7</v>
+      </c>
+      <c r="H32" s="3">
+        <v>103708</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="3">
+        <v>32</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="3" t="str">
+        <f>CONCATENATE(G33,H33)</f>
+        <v>11V1DP103720</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" t="s">
+        <v>7</v>
+      </c>
+      <c r="H33" s="6">
+        <v>103720</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="3">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="3" t="str">
+        <f>CONCATENATE(G34,H34)</f>
+        <v>11V1DP103897</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" t="s">
+        <v>7</v>
+      </c>
+      <c r="H34" s="3">
+        <v>103897</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="18.75">
+      <c r="A35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="3">
+        <v>34</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="3" t="str">
+        <f>CONCATENATE(G36,H36)</f>
+        <v>11V1DP104101</v>
+      </c>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" t="s">
+        <v>7</v>
+      </c>
+      <c r="H36">
+        <v>104101</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="3">
+        <v>35</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="3" t="str">
+        <f>CONCATENATE(G37,H37)</f>
+        <v>11V1DP104142</v>
+      </c>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" t="s">
+        <v>7</v>
+      </c>
+      <c r="H37" s="4">
+        <v>104142</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="3">
+        <v>36</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="3" t="str">
+        <f>CONCATENATE(G38,H38)</f>
+        <v>11V1DP104144</v>
+      </c>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" t="s">
+        <v>7</v>
+      </c>
+      <c r="H38" s="5">
+        <v>104144</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="3">
+        <v>37</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="3" t="str">
+        <f>CONCATENATE(G39,H39)</f>
+        <v>11V1DP104145</v>
+      </c>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" t="s">
+        <v>7</v>
+      </c>
+      <c r="H39" s="4">
+        <v>104145</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="3">
+        <v>38</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="3" t="str">
+        <f>CONCATENATE(G40,H40)</f>
+        <v>11V1DP104148</v>
+      </c>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" t="s">
+        <v>7</v>
+      </c>
+      <c r="H40" s="5">
+        <v>104148</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="3">
+        <v>39</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="3" t="str">
+        <f>CONCATENATE(G41,H41)</f>
+        <v>11V1DP104202</v>
+      </c>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" t="s">
+        <v>7</v>
+      </c>
+      <c r="H41" s="5">
+        <v>104202</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="3">
+        <v>40</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="3" t="str">
+        <f>CONCATENATE(G42,H42)</f>
+        <v>11V1DP104207</v>
+      </c>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" t="s">
+        <v>7</v>
+      </c>
+      <c r="H42">
+        <v>104207</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="3">
+        <v>41</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="3" t="str">
+        <f>CONCATENATE(G43,H43)</f>
+        <v>11V1DP104384</v>
+      </c>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" t="s">
+        <v>7</v>
+      </c>
+      <c r="H43">
+        <v>104384</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="3">
+        <v>42</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="3" t="str">
+        <f>CONCATENATE(G44,H44)</f>
+        <v>11V1DP104385</v>
+      </c>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" t="s">
+        <v>7</v>
+      </c>
+      <c r="H44">
+        <v>104385</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="3">
+        <v>43</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="3" t="str">
+        <f>CONCATENATE(G45,H45)</f>
+        <v>11V1DP104387</v>
+      </c>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" t="s">
+        <v>7</v>
+      </c>
+      <c r="H45">
+        <v>104387</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="3">
+        <v>44</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="3" t="str">
+        <f>CONCATENATE(G46,H46)</f>
+        <v>11V1DP104388</v>
+      </c>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" t="s">
+        <v>7</v>
+      </c>
+      <c r="H46">
+        <v>104388</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="3">
+        <v>45</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="3" t="str">
+        <f>CONCATENATE(G47,H47)</f>
+        <v>11V1DP104390</v>
+      </c>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" t="s">
+        <v>7</v>
+      </c>
+      <c r="H47">
+        <v>104390</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="3">
+        <v>46</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="3" t="str">
+        <f>CONCATENATE(G48,H48)</f>
+        <v>11V1DP104392</v>
+      </c>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" t="s">
+        <v>7</v>
+      </c>
+      <c r="H48">
+        <v>104392</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="3">
+        <v>47</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="3" t="str">
+        <f>CONCATENATE(G49,H49)</f>
+        <v>11V1DP104397</v>
+      </c>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" t="s">
+        <v>7</v>
+      </c>
+      <c r="H49">
+        <v>104397</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="3">
+        <v>48</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="3" t="str">
+        <f>CONCATENATE(G50,H50)</f>
+        <v>11V1DP104398</v>
+      </c>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" t="s">
+        <v>7</v>
+      </c>
+      <c r="H50">
+        <v>104398</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="3">
+        <v>49</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="3" t="str">
+        <f>CONCATENATE(G51,H51)</f>
+        <v>11V1DP104441</v>
+      </c>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" t="s">
+        <v>7</v>
+      </c>
+      <c r="H51">
+        <v>104441</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="3">
+        <v>50</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="3" t="str">
+        <f>CONCATENATE(G52,H52)</f>
+        <v>11V1DP104442</v>
+      </c>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" t="s">
+        <v>7</v>
+      </c>
+      <c r="H52">
+        <v>104442</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="3">
+        <v>51</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="3" t="str">
+        <f>CONCATENATE(G53,H53)</f>
+        <v>11V1DP104450</v>
+      </c>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" t="s">
+        <v>7</v>
+      </c>
+      <c r="H53">
+        <v>104450</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.46875" right="0.45833333333333331" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="300" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;A
+&amp;CTABLETS ALLOCATION FORM</oddHeader>
+    <oddFooter>&amp;RPage &amp;P of &amp;N</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView view="pageLayout" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="C21" sqref="C1:C1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="33.85546875" customWidth="1"/>
+    <col min="5" max="5" width="41.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A25" s="3">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="3">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="3">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="3">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="3">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="3">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="3">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="3">
+        <v>32</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="3">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+    </row>
+    <row r="35" spans="1:6" ht="18.75">
+      <c r="A35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="18.75">
+      <c r="A36" s="3">
+        <v>34</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="3">
+        <v>35</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="3">
+        <v>36</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="3">
+        <v>37</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="3">
+        <v>38</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="3">
+        <v>39</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="3">
+        <v>40</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="3">
+        <v>41</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="3">
+        <v>42</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="3">
+        <v>43</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="3">
+        <v>44</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="3">
+        <v>45</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="3">
+        <v>46</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="3">
+        <v>47</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="3">
+        <v>48</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="3">
+        <v>49</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="3">
+        <v>50</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="3">
+        <v>51</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="3">
+        <v>52</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="3">
+        <v>53</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="3">
+        <v>54</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="3">
+        <v>55</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="3">
+        <v>56</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="3">
+        <v>57</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="3">
+        <v>58</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.36458333333333331" right="0.41666666666666669" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;A
+&amp;CTABLETS ALLOCATION FORM</oddHeader>
+    <oddFooter>&amp;RPage &amp;P of &amp;N</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView view="pageLayout" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="33.85546875" customWidth="1"/>
+    <col min="5" max="5" width="43.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" spans="1:6" ht="18.75">
+      <c r="A25" s="3">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="3">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="3">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="3">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="3">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="3">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="3">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="3">
+        <v>32</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="3">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+    </row>
+    <row r="35" spans="1:6" ht="18.75">
+      <c r="A35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="18.75">
+      <c r="A36" s="3">
+        <v>34</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="3">
+        <v>35</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="3">
+        <v>36</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="3">
+        <v>37</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="3">
+        <v>38</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="3">
+        <v>39</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="3">
+        <v>40</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="3">
+        <v>41</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="3">
+        <v>42</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="3">
+        <v>43</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.30208333333333331" right="0.375" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;A&amp;CTABLETS ALLOCATION FORM</oddHeader>
+    <oddFooter>&amp;RPage &amp;P of &amp;N</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView view="pageLayout" topLeftCell="A22" workbookViewId="0">
+      <selection sqref="A1:F100"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" customWidth="1"/>
+    <col min="4" max="4" width="31.7109375" customWidth="1"/>
+    <col min="5" max="5" width="37.140625" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" spans="1:6" ht="18.75">
+      <c r="A25" s="3">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="3">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="3">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="3">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="3">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="3">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="3">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="3">
+        <v>32</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="3">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+    </row>
+    <row r="35" spans="1:6" ht="18.75">
+      <c r="A35" s="3">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="3">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="3">
+        <v>36</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="3">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="3">
+        <v>38</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="3">
+        <v>39</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="3">
+        <v>40</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="3">
+        <v>41</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="3">
+        <v>42</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="3">
+        <v>43</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="3">
+        <v>44</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="3">
+        <v>45</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="3">
+        <v>46</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="3">
+        <v>47</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="3">
+        <v>48</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="3">
+        <v>49</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="3">
+        <v>50</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="3">
+        <v>51</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="3">
+        <v>52</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="3">
+        <v>53</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="3">
+        <v>54</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="3">
+        <v>55</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="3">
+        <v>56</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="3">
+        <v>57</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="3">
+        <v>58</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="3">
+        <v>59</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="3">
+        <v>60</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="3">
+        <v>61</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="3">
+        <v>62</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="3">
+        <v>63</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="3">
+        <v>64</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="3">
+        <v>65</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="3">
+        <v>66</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="3">
+        <v>67</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="3">
+        <v>68</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="3">
+        <v>69</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="3">
+        <v>70</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="3">
+        <v>71</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="3">
+        <v>72</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="3">
+        <v>73</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="3">
+        <v>74</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="3">
+        <v>75</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="3">
+        <v>76</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="3">
+        <v>77</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3"/>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="3">
+        <v>78</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="3">
+        <v>79</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="3">
+        <v>80</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="3">
+        <v>81</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="3"/>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="3">
+        <v>82</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3"/>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="3">
+        <v>83</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="3"/>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="3">
+        <v>84</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D85" s="3"/>
+      <c r="E85" s="3"/>
+      <c r="F85" s="3"/>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="3">
+        <v>85</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3"/>
+      <c r="F86" s="3"/>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="3">
+        <v>86</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D87" s="3"/>
+      <c r="E87" s="3"/>
+      <c r="F87" s="3"/>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="3">
+        <v>87</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D88" s="3"/>
+      <c r="E88" s="3"/>
+      <c r="F88" s="3"/>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="3">
+        <v>88</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3"/>
+      <c r="F89" s="3"/>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="3">
+        <v>89</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3"/>
+      <c r="F90" s="3"/>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="3">
+        <v>90</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D91" s="3"/>
+      <c r="E91" s="3"/>
+      <c r="F91" s="3"/>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="3">
+        <v>91</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D92" s="3"/>
+      <c r="E92" s="3"/>
+      <c r="F92" s="3"/>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="3">
+        <v>92</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D93" s="3"/>
+      <c r="E93" s="3"/>
+      <c r="F93" s="3"/>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="3">
+        <v>93</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D94" s="3"/>
+      <c r="E94" s="3"/>
+      <c r="F94" s="3"/>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="3">
+        <v>94</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D95" s="3"/>
+      <c r="E95" s="3"/>
+      <c r="F95" s="3"/>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="3">
+        <v>95</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D96" s="3"/>
+      <c r="E96" s="3"/>
+      <c r="F96" s="3"/>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="3">
+        <v>96</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D97" s="3"/>
+      <c r="E97" s="3"/>
+      <c r="F97" s="3"/>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="3">
+        <v>97</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D98" s="3"/>
+      <c r="E98" s="3"/>
+      <c r="F98" s="3"/>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="3">
+        <v>98</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D99" s="3"/>
+      <c r="E99" s="3"/>
+      <c r="F99" s="3"/>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="3">
+        <v>99</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D100" s="3"/>
+      <c r="E100" s="3"/>
+      <c r="F100" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.375" right="0.27083333333333331" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;A&amp;CTABLETS ALLOCATION FORM</oddHeader>
+    <oddFooter>&amp;RPage &amp;P of &amp;N</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="3">
+        <v>30</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D1" s="3" t="str">
+        <f>RIGHT(C1,4)</f>
+        <v>3454</v>
+      </c>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="3">
+        <v>31</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D2" s="3" t="str">
+        <f>RIGHT(C2,4)</f>
+        <v>3455</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="3">
+        <v>32</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D3" s="3" t="str">
+        <f>RIGHT(C3,4)</f>
+        <v>3456</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="3">
+        <v>33</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D4" s="3" t="str">
+        <f>RIGHT(C4,4)</f>
+        <v>3457</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" ht="18.75">
+      <c r="A5" s="3">
+        <v>34</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>203</v>
+      </c>
+      <c r="D5" s="3" t="str">
+        <f>RIGHT(C5,4)</f>
+        <v>3458</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="3">
+        <v>35</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>204</v>
+      </c>
+      <c r="D6" s="3" t="str">
+        <f>RIGHT(C6,4)</f>
+        <v>3459</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="3">
+        <v>36</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>205</v>
+      </c>
+      <c r="D7" s="3" t="str">
+        <f>RIGHT(C7,4)</f>
+        <v>3460</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="3">
+        <v>37</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>206</v>
+      </c>
+      <c r="D8" s="3" t="str">
+        <f>RIGHT(C8,4)</f>
+        <v>3461</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="3">
+        <v>38</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>207</v>
+      </c>
+      <c r="D9" s="3" t="str">
+        <f>RIGHT(C9,4)</f>
+        <v>3462</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="3">
+        <v>39</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>208</v>
+      </c>
+      <c r="D10" s="3" t="str">
+        <f>RIGHT(C10,4)</f>
+        <v>3463</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Tablets Distribution - Botha-Bothe.xlsx
+++ b/Tablets Distribution - Botha-Bothe.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935"/>
   </bookViews>
   <sheets>
     <sheet name="All Tablets" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Hololo!$A$1:$H$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Mechechane!$A$1:$F$1</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" iterate="1" iterateCount="1000" calcOnSave="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="287">
   <si>
     <t>No.</t>
   </si>
@@ -834,13 +834,64 @@
   </si>
   <si>
     <t>HJH0THPA</t>
+  </si>
+  <si>
+    <t>District</t>
+  </si>
+  <si>
+    <t>Constituency</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Botha-Bothe</t>
+  </si>
+  <si>
+    <t>Butha-Buthe</t>
+  </si>
+  <si>
+    <t>Click</t>
+  </si>
+  <si>
+    <t>Hololo</t>
+  </si>
+  <si>
+    <t>Xtouch</t>
+  </si>
+  <si>
+    <t>Mechechane</t>
+  </si>
+  <si>
+    <t>Motete</t>
+  </si>
+  <si>
+    <t>Lenovo Tab 2 A7-30</t>
+  </si>
+  <si>
+    <t>Qalo</t>
+  </si>
+  <si>
+    <t>IT Coordinators</t>
+  </si>
+  <si>
+    <t>1 Lenovo Tab 8 (UNFPA) and 1 Lenovo Tab A8</t>
+  </si>
+  <si>
+    <t>Supervisors</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -856,6 +907,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -865,7 +933,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -899,11 +967,94 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -916,6 +1067,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="60" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="60" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="60" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1211,13 +1401,163 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="15.140625" style="21" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" style="21" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="21" customWidth="1"/>
+    <col min="4" max="4" width="46.7109375" style="21" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="21" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="C2" s="11">
+        <v>99</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="13"/>
+      <c r="B3" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="C3" s="11">
+        <v>51</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="13"/>
+      <c r="B4" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="C4" s="11">
+        <v>46</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="13"/>
+      <c r="B5" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="C5" s="11">
+        <v>58</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="13"/>
+      <c r="B6" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="C6" s="11">
+        <v>43</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="13"/>
+      <c r="B7" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="C7" s="15">
+        <v>2</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="16"/>
+      <c r="B8" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="C8" s="15">
+        <v>8</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="B9" s="18"/>
+      <c r="C9" s="19">
+        <f>SUM(C2:C8)</f>
+        <v>307</v>
+      </c>
+      <c r="D9" s="19"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="E2:E9"/>
+    <mergeCell ref="F2:F9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1225,7 +1565,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView view="pageLayout" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -1999,7 +2339,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="str">
-        <f>CONCATENATE(G2,H2)</f>
+        <f t="shared" ref="C2:C34" si="0">CONCATENATE(G2,H2)</f>
         <v>11V1BP100026</v>
       </c>
       <c r="D2" s="3"/>
@@ -2020,7 +2360,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="3" t="str">
-        <f>CONCATENATE(G3,H3)</f>
+        <f t="shared" si="0"/>
         <v>11V1BP100028</v>
       </c>
       <c r="D3" s="3"/>
@@ -2041,7 +2381,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="3" t="str">
-        <f>CONCATENATE(G4,H4)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP100336</v>
       </c>
       <c r="D4" s="3"/>
@@ -2062,7 +2402,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="3" t="str">
-        <f>CONCATENATE(G5,H5)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP101881</v>
       </c>
       <c r="D5" s="3"/>
@@ -2083,7 +2423,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="3" t="str">
-        <f>CONCATENATE(G6,H6)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP101924</v>
       </c>
       <c r="D6" s="3"/>
@@ -2104,7 +2444,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="3" t="str">
-        <f>CONCATENATE(G7,H7)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP101931</v>
       </c>
       <c r="D7" s="3"/>
@@ -2125,7 +2465,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="3" t="str">
-        <f>CONCATENATE(G8,H8)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP101983</v>
       </c>
       <c r="D8" s="3"/>
@@ -2146,7 +2486,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="3" t="str">
-        <f>CONCATENATE(G9,H9)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP101987</v>
       </c>
       <c r="D9" s="3"/>
@@ -2167,7 +2507,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="3" t="str">
-        <f>CONCATENATE(G10,H10)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP102303</v>
       </c>
       <c r="D10" s="3"/>
@@ -2188,7 +2528,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="3" t="str">
-        <f>CONCATENATE(G11,H11)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP102304</v>
       </c>
       <c r="D11" s="3"/>
@@ -2209,7 +2549,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="3" t="str">
-        <f>CONCATENATE(G12,H12)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP102308</v>
       </c>
       <c r="D12" s="3"/>
@@ -2230,7 +2570,7 @@
         <v>6</v>
       </c>
       <c r="C13" s="3" t="str">
-        <f>CONCATENATE(G13,H13)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP102315</v>
       </c>
       <c r="D13" s="3"/>
@@ -2251,7 +2591,7 @@
         <v>6</v>
       </c>
       <c r="C14" s="3" t="str">
-        <f>CONCATENATE(G14,H14)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP102470</v>
       </c>
       <c r="D14" s="3"/>
@@ -2272,7 +2612,7 @@
         <v>6</v>
       </c>
       <c r="C15" s="3" t="str">
-        <f>CONCATENATE(G15,H15)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP102508</v>
       </c>
       <c r="D15" s="3"/>
@@ -2293,7 +2633,7 @@
         <v>6</v>
       </c>
       <c r="C16" s="3" t="str">
-        <f>CONCATENATE(G16,H16)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP102512</v>
       </c>
       <c r="D16" s="3"/>
@@ -2314,7 +2654,7 @@
         <v>6</v>
       </c>
       <c r="C17" s="3" t="str">
-        <f>CONCATENATE(G17,H17)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP102514</v>
       </c>
       <c r="D17" s="3"/>
@@ -2335,7 +2675,7 @@
         <v>6</v>
       </c>
       <c r="C18" s="3" t="str">
-        <f>CONCATENATE(G18,H18)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP102523</v>
       </c>
       <c r="D18" s="3"/>
@@ -2356,7 +2696,7 @@
         <v>6</v>
       </c>
       <c r="C19" s="3" t="str">
-        <f>CONCATENATE(G19,H19)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP102768</v>
       </c>
       <c r="D19" s="3"/>
@@ -2377,7 +2717,7 @@
         <v>6</v>
       </c>
       <c r="C20" s="3" t="str">
-        <f>CONCATENATE(G20,H20)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP102863</v>
       </c>
       <c r="D20" s="3"/>
@@ -2398,7 +2738,7 @@
         <v>6</v>
       </c>
       <c r="C21" s="3" t="str">
-        <f>CONCATENATE(G21,H21)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP102865</v>
       </c>
       <c r="D21" s="3"/>
@@ -2419,7 +2759,7 @@
         <v>6</v>
       </c>
       <c r="C22" s="3" t="str">
-        <f>CONCATENATE(G22,H22)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP102866</v>
       </c>
       <c r="D22" s="3"/>
@@ -2440,7 +2780,7 @@
         <v>6</v>
       </c>
       <c r="C23" s="3" t="str">
-        <f>CONCATENATE(G23,H23)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP102867</v>
       </c>
       <c r="D23" s="3"/>
@@ -2461,7 +2801,7 @@
         <v>6</v>
       </c>
       <c r="C24" s="3" t="str">
-        <f>CONCATENATE(G24,H24)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP102869</v>
       </c>
       <c r="D24" s="3"/>
@@ -2482,7 +2822,7 @@
         <v>6</v>
       </c>
       <c r="C25" s="3" t="str">
-        <f>CONCATENATE(G25,H25)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP102870</v>
       </c>
       <c r="D25" s="1"/>
@@ -2503,7 +2843,7 @@
         <v>6</v>
       </c>
       <c r="C26" s="3" t="str">
-        <f>CONCATENATE(G26,H26)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP102875</v>
       </c>
       <c r="D26" s="3"/>
@@ -2524,7 +2864,7 @@
         <v>6</v>
       </c>
       <c r="C27" s="3" t="str">
-        <f>CONCATENATE(G27,H27)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP102875</v>
       </c>
       <c r="D27" s="3"/>
@@ -2545,7 +2885,7 @@
         <v>6</v>
       </c>
       <c r="C28" s="3" t="str">
-        <f>CONCATENATE(G28,H28)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP102876</v>
       </c>
       <c r="D28" s="3"/>
@@ -2566,7 +2906,7 @@
         <v>6</v>
       </c>
       <c r="C29" s="3" t="str">
-        <f>CONCATENATE(G29,H29)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP102877</v>
       </c>
       <c r="D29" s="3"/>
@@ -2587,7 +2927,7 @@
         <v>6</v>
       </c>
       <c r="C30" s="3" t="str">
-        <f>CONCATENATE(G30,H30)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP102878</v>
       </c>
       <c r="D30" s="3"/>
@@ -2608,7 +2948,7 @@
         <v>6</v>
       </c>
       <c r="C31" s="3" t="str">
-        <f>CONCATENATE(G31,H31)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP103274</v>
       </c>
       <c r="D31" s="3"/>
@@ -2629,7 +2969,7 @@
         <v>6</v>
       </c>
       <c r="C32" s="3" t="str">
-        <f>CONCATENATE(G32,H32)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP103708</v>
       </c>
       <c r="D32" s="3"/>
@@ -2650,7 +2990,7 @@
         <v>6</v>
       </c>
       <c r="C33" s="3" t="str">
-        <f>CONCATENATE(G33,H33)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP103720</v>
       </c>
       <c r="D33" s="3"/>
@@ -2671,7 +3011,7 @@
         <v>6</v>
       </c>
       <c r="C34" s="3" t="str">
-        <f>CONCATENATE(G34,H34)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP103897</v>
       </c>
       <c r="D34" s="3"/>
@@ -2712,7 +3052,7 @@
         <v>6</v>
       </c>
       <c r="C36" s="3" t="str">
-        <f>CONCATENATE(G36,H36)</f>
+        <f t="shared" ref="C36:C53" si="1">CONCATENATE(G36,H36)</f>
         <v>11V1DP104101</v>
       </c>
       <c r="D36" s="3"/>
@@ -2733,7 +3073,7 @@
         <v>6</v>
       </c>
       <c r="C37" s="3" t="str">
-        <f>CONCATENATE(G37,H37)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP104142</v>
       </c>
       <c r="D37" s="3"/>
@@ -2754,7 +3094,7 @@
         <v>6</v>
       </c>
       <c r="C38" s="3" t="str">
-        <f>CONCATENATE(G38,H38)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP104144</v>
       </c>
       <c r="D38" s="3"/>
@@ -2775,7 +3115,7 @@
         <v>6</v>
       </c>
       <c r="C39" s="3" t="str">
-        <f>CONCATENATE(G39,H39)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP104145</v>
       </c>
       <c r="D39" s="3"/>
@@ -2796,7 +3136,7 @@
         <v>6</v>
       </c>
       <c r="C40" s="3" t="str">
-        <f>CONCATENATE(G40,H40)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP104148</v>
       </c>
       <c r="D40" s="3"/>
@@ -2817,7 +3157,7 @@
         <v>6</v>
       </c>
       <c r="C41" s="3" t="str">
-        <f>CONCATENATE(G41,H41)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP104202</v>
       </c>
       <c r="D41" s="3"/>
@@ -2838,7 +3178,7 @@
         <v>6</v>
       </c>
       <c r="C42" s="3" t="str">
-        <f>CONCATENATE(G42,H42)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP104207</v>
       </c>
       <c r="D42" s="3"/>
@@ -2859,7 +3199,7 @@
         <v>6</v>
       </c>
       <c r="C43" s="3" t="str">
-        <f>CONCATENATE(G43,H43)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP104384</v>
       </c>
       <c r="D43" s="3"/>
@@ -2880,7 +3220,7 @@
         <v>6</v>
       </c>
       <c r="C44" s="3" t="str">
-        <f>CONCATENATE(G44,H44)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP104385</v>
       </c>
       <c r="D44" s="3"/>
@@ -2901,7 +3241,7 @@
         <v>6</v>
       </c>
       <c r="C45" s="3" t="str">
-        <f>CONCATENATE(G45,H45)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP104387</v>
       </c>
       <c r="D45" s="3"/>
@@ -2922,7 +3262,7 @@
         <v>6</v>
       </c>
       <c r="C46" s="3" t="str">
-        <f>CONCATENATE(G46,H46)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP104388</v>
       </c>
       <c r="D46" s="3"/>
@@ -2943,7 +3283,7 @@
         <v>6</v>
       </c>
       <c r="C47" s="3" t="str">
-        <f>CONCATENATE(G47,H47)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP104390</v>
       </c>
       <c r="D47" s="3"/>
@@ -2964,7 +3304,7 @@
         <v>6</v>
       </c>
       <c r="C48" s="3" t="str">
-        <f>CONCATENATE(G48,H48)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP104392</v>
       </c>
       <c r="D48" s="3"/>
@@ -2985,7 +3325,7 @@
         <v>6</v>
       </c>
       <c r="C49" s="3" t="str">
-        <f>CONCATENATE(G49,H49)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP104397</v>
       </c>
       <c r="D49" s="3"/>
@@ -3006,7 +3346,7 @@
         <v>6</v>
       </c>
       <c r="C50" s="3" t="str">
-        <f>CONCATENATE(G50,H50)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP104398</v>
       </c>
       <c r="D50" s="3"/>
@@ -3027,7 +3367,7 @@
         <v>6</v>
       </c>
       <c r="C51" s="3" t="str">
-        <f>CONCATENATE(G51,H51)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP104441</v>
       </c>
       <c r="D51" s="3"/>
@@ -3048,7 +3388,7 @@
         <v>6</v>
       </c>
       <c r="C52" s="3" t="str">
-        <f>CONCATENATE(G52,H52)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP104442</v>
       </c>
       <c r="D52" s="3"/>
@@ -3069,7 +3409,7 @@
         <v>6</v>
       </c>
       <c r="C53" s="3" t="str">
-        <f>CONCATENATE(G53,H53)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP104450</v>
       </c>
       <c r="D53" s="3"/>
@@ -6246,7 +6586,7 @@
         <v>199</v>
       </c>
       <c r="D1" s="3" t="str">
-        <f>RIGHT(C1,4)</f>
+        <f t="shared" ref="D1:D10" si="0">RIGHT(C1,4)</f>
         <v>3454</v>
       </c>
       <c r="E1" s="3"/>
@@ -6263,7 +6603,7 @@
         <v>200</v>
       </c>
       <c r="D2" s="3" t="str">
-        <f>RIGHT(C2,4)</f>
+        <f t="shared" si="0"/>
         <v>3455</v>
       </c>
       <c r="E2" s="3"/>
@@ -6280,7 +6620,7 @@
         <v>201</v>
       </c>
       <c r="D3" s="3" t="str">
-        <f>RIGHT(C3,4)</f>
+        <f t="shared" si="0"/>
         <v>3456</v>
       </c>
       <c r="E3" s="3"/>
@@ -6297,7 +6637,7 @@
         <v>202</v>
       </c>
       <c r="D4" s="3" t="str">
-        <f>RIGHT(C4,4)</f>
+        <f t="shared" si="0"/>
         <v>3457</v>
       </c>
       <c r="E4" s="3"/>
@@ -6314,7 +6654,7 @@
         <v>203</v>
       </c>
       <c r="D5" s="3" t="str">
-        <f>RIGHT(C5,4)</f>
+        <f t="shared" si="0"/>
         <v>3458</v>
       </c>
       <c r="E5" s="1"/>
@@ -6331,7 +6671,7 @@
         <v>204</v>
       </c>
       <c r="D6" s="3" t="str">
-        <f>RIGHT(C6,4)</f>
+        <f t="shared" si="0"/>
         <v>3459</v>
       </c>
       <c r="E6" s="3"/>
@@ -6348,7 +6688,7 @@
         <v>205</v>
       </c>
       <c r="D7" s="3" t="str">
-        <f>RIGHT(C7,4)</f>
+        <f t="shared" si="0"/>
         <v>3460</v>
       </c>
       <c r="E7" s="3"/>
@@ -6365,7 +6705,7 @@
         <v>206</v>
       </c>
       <c r="D8" s="3" t="str">
-        <f>RIGHT(C8,4)</f>
+        <f t="shared" si="0"/>
         <v>3461</v>
       </c>
       <c r="E8" s="3"/>
@@ -6382,7 +6722,7 @@
         <v>207</v>
       </c>
       <c r="D9" s="3" t="str">
-        <f>RIGHT(C9,4)</f>
+        <f t="shared" si="0"/>
         <v>3462</v>
       </c>
       <c r="E9" s="3"/>
@@ -6399,7 +6739,7 @@
         <v>208</v>
       </c>
       <c r="D10" s="3" t="str">
-        <f>RIGHT(C10,4)</f>
+        <f t="shared" si="0"/>
         <v>3463</v>
       </c>
       <c r="E10" s="3"/>
